--- a/templates/constructionWeekPlanCommandError.xlsx
+++ b/templates/constructionWeekPlanCommandError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14719\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636DFFBC-7A86-4CDE-B26B-0C10FD7F6605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA9B4BD-CACB-4A6A-95B2-B80752616C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1185" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运营施工及行车计划申报导入错误信息" sheetId="1" r:id="rId1"/>
@@ -150,6 +150,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,18 +264,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="5" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,7 +563,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -564,56 +571,56 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="15" max="15" width="17" style="10" customWidth="1"/>
     <col min="16" max="16" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -625,7 +632,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -658,13 +665,13 @@
       <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -678,7 +685,7 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
@@ -711,7 +718,7 @@
       <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="P4" t="s">

--- a/templates/constructionWeekPlanCommandError.xlsx
+++ b/templates/constructionWeekPlanCommandError.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA9B4BD-CACB-4A6A-95B2-B80752616C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3F462-122B-4675-B71D-BC4493FFC9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="675" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运营施工及行车计划申报导入错误信息" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>{{$fe:maplist t.natureName</t>
   </si>
   <si>
-    <t>t.typeName</t>
-  </si>
-  <si>
     <t>t.orgName</t>
   </si>
   <si>
@@ -143,6 +140,10 @@
   </si>
   <si>
     <t>运营施工及行车计划申报导入错误信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -270,16 +271,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="5" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="5" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,7 +564,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,56 +572,56 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="15" max="15" width="17" style="10" customWidth="1"/>
+    <col min="15" max="15" width="17" style="8" customWidth="1"/>
     <col min="16" max="16" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -632,7 +633,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -665,14 +666,14 @@
       <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -680,52 +681,52 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
